--- a/data/CBS/NFIB/old/Actual Price Changes.xlsx
+++ b/data/CBS/NFIB/old/Actual Price Changes.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D2B39AFD-C17B-4AF4-A993-322E505FA9F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="45" windowWidth="18195" windowHeight="7995"/>
+    <workbookView xWindow="7050" yWindow="1575" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="860" uniqueCount="487">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="862" uniqueCount="489">
   <si>
     <t>Month/Year</t>
   </si>
@@ -72,18 +73,18 @@
     <t>1986/10/1</t>
   </si>
   <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>1986/11/1</t>
+  </si>
+  <si>
+    <t>1986/12/1</t>
+  </si>
+  <si>
     <t>7</t>
   </si>
   <si>
-    <t>1986/11/1</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>1986/12/1</t>
-  </si>
-  <si>
     <t>1987/1/1</t>
   </si>
   <si>
@@ -132,6 +133,9 @@
     <t>1987/10/1</t>
   </si>
   <si>
+    <t>15</t>
+  </si>
+  <si>
     <t>1987/11/1</t>
   </si>
   <si>
@@ -186,6 +190,9 @@
     <t>1988/10/1</t>
   </si>
   <si>
+    <t>22</t>
+  </si>
+  <si>
     <t>1988/11/1</t>
   </si>
   <si>
@@ -246,9 +253,6 @@
     <t>1990/3/1</t>
   </si>
   <si>
-    <t>15</t>
-  </si>
-  <si>
     <t>1990/4/1</t>
   </si>
   <si>
@@ -810,9 +814,6 @@
     <t>2005/2/1</t>
   </si>
   <si>
-    <t>22</t>
-  </si>
-  <si>
     <t>2005/3/1</t>
   </si>
   <si>
@@ -1005,30 +1006,30 @@
     <t>2009/10/1</t>
   </si>
   <si>
+    <t>-19</t>
+  </si>
+  <si>
+    <t>2009/11/1</t>
+  </si>
+  <si>
+    <t>-16</t>
+  </si>
+  <si>
+    <t>2009/12/1</t>
+  </si>
+  <si>
+    <t>2010/1/1</t>
+  </si>
+  <si>
+    <t>-14</t>
+  </si>
+  <si>
+    <t>2010/2/1</t>
+  </si>
+  <si>
     <t>-18</t>
   </si>
   <si>
-    <t>2009/11/1</t>
-  </si>
-  <si>
-    <t>-16</t>
-  </si>
-  <si>
-    <t>2009/12/1</t>
-  </si>
-  <si>
-    <t>-19</t>
-  </si>
-  <si>
-    <t>2010/1/1</t>
-  </si>
-  <si>
-    <t>-14</t>
-  </si>
-  <si>
-    <t>2010/2/1</t>
-  </si>
-  <si>
     <t>2010/3/1</t>
   </si>
   <si>
@@ -1065,7 +1066,7 @@
     <t>2010/10/1</t>
   </si>
   <si>
-    <t>-6</t>
+    <t>-7</t>
   </si>
   <si>
     <t>2010/11/1</t>
@@ -1479,13 +1480,19 @@
     <t>2021/10/1</t>
   </si>
   <si>
-    <t>53</t>
+    <t>52</t>
+  </si>
+  <si>
+    <t>2021/12/1</t>
+  </si>
+  <si>
+    <t>57</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1634,6 +1641,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1669,6 +1693,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1844,8 +1885,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B430"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:B431"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -1950,15 +1991,15 @@
         <v>18</v>
       </c>
       <c r="B12" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
+        <v>19</v>
+      </c>
+      <c r="B13" t="s">
         <v>20</v>
-      </c>
-      <c r="B13" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
@@ -2038,188 +2079,188 @@
         <v>36</v>
       </c>
       <c r="B23" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B24" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B25" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B26" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B27" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B28" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B29" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B30" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B31" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B32" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B33" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B34" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B35" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B36" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B37" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B38" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B39" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B40" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B41" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B42" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B43" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B44" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B45" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B46" t="s">
         <v>35</v>
@@ -2227,15 +2268,15 @@
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B47" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B48" t="s">
         <v>35</v>
@@ -2243,55 +2284,55 @@
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B49" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B50" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B51" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B52" t="s">
-        <v>75</v>
+        <v>37</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B53" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B54" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B55" t="s">
         <v>35</v>
@@ -2299,7 +2340,7 @@
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B56" t="s">
         <v>29</v>
@@ -2307,7 +2348,7 @@
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B57" t="s">
         <v>33</v>
@@ -2315,39 +2356,39 @@
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B58" t="s">
-        <v>75</v>
+        <v>37</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B59" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B60" t="s">
-        <v>75</v>
+        <v>37</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B61" t="s">
-        <v>75</v>
+        <v>37</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B62" t="s">
         <v>29</v>
@@ -2355,7 +2396,7 @@
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B63" t="s">
         <v>25</v>
@@ -2363,23 +2404,23 @@
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B64" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B65" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B66" t="s">
         <v>3</v>
@@ -2387,7 +2428,7 @@
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B67" t="s">
         <v>9</v>
@@ -2395,7 +2436,7 @@
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B68" t="s">
         <v>13</v>
@@ -2403,15 +2444,15 @@
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B69" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B70" t="s">
         <v>7</v>
@@ -2419,23 +2460,23 @@
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B71" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B72" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B73" t="s">
         <v>13</v>
@@ -2443,31 +2484,31 @@
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B74" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B75" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B76" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B77" t="s">
         <v>9</v>
@@ -2475,15 +2516,15 @@
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B78" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B79" t="s">
         <v>13</v>
@@ -2491,7 +2532,7 @@
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B80" t="s">
         <v>9</v>
@@ -2499,31 +2540,31 @@
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B81" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B82" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B83" t="s">
-        <v>9</v>
+        <v>100</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B84" t="s">
         <v>13</v>
@@ -2531,23 +2572,23 @@
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B85" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B86" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B87" t="s">
         <v>7</v>
@@ -2555,15 +2596,15 @@
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B88" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B89" t="s">
         <v>13</v>
@@ -2571,7 +2612,7 @@
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B90" t="s">
         <v>9</v>
@@ -2579,7 +2620,7 @@
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B91" t="s">
         <v>3</v>
@@ -2587,7 +2628,7 @@
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B92" t="s">
         <v>9</v>
@@ -2595,7 +2636,7 @@
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B93" t="s">
         <v>9</v>
@@ -2603,23 +2644,23 @@
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B94" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B95" t="s">
-        <v>19</v>
+        <v>104</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B96" t="s">
         <v>7</v>
@@ -2627,7 +2668,7 @@
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B97" t="s">
         <v>25</v>
@@ -2635,23 +2676,23 @@
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B98" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B99" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B100" t="s">
         <v>5</v>
@@ -2659,7 +2700,7 @@
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B101" t="s">
         <v>7</v>
@@ -2667,23 +2708,23 @@
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B102" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B103" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B104" t="s">
         <v>7</v>
@@ -2691,7 +2732,7 @@
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B105" t="s">
         <v>7</v>
@@ -2699,23 +2740,23 @@
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B106" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B107" t="s">
-        <v>3</v>
+        <v>20</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B108" t="s">
         <v>5</v>
@@ -2723,15 +2764,15 @@
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B109" t="s">
-        <v>75</v>
+        <v>37</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B110" t="s">
         <v>33</v>
@@ -2739,7 +2780,7 @@
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B111" t="s">
         <v>31</v>
@@ -2747,15 +2788,15 @@
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B112" t="s">
-        <v>75</v>
+        <v>37</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B113" t="s">
         <v>27</v>
@@ -2763,7 +2804,7 @@
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B114" t="s">
         <v>5</v>
@@ -2771,7 +2812,7 @@
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B115" t="s">
         <v>7</v>
@@ -2779,7 +2820,7 @@
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B116" t="s">
         <v>3</v>
@@ -2787,7 +2828,7 @@
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B117" t="s">
         <v>3</v>
@@ -2795,7 +2836,7 @@
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B118" t="s">
         <v>25</v>
@@ -2803,15 +2844,15 @@
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B119" t="s">
-        <v>25</v>
+        <v>3</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B120" t="s">
         <v>3</v>
@@ -2819,7 +2860,7 @@
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B121" t="s">
         <v>25</v>
@@ -2827,15 +2868,15 @@
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B122" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B123" t="s">
         <v>25</v>
@@ -2843,7 +2884,7 @@
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B124" t="s">
         <v>25</v>
@@ -2851,15 +2892,15 @@
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B125" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B126" t="s">
         <v>31</v>
@@ -2867,7 +2908,7 @@
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B127" t="s">
         <v>3</v>
@@ -2875,39 +2916,39 @@
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B128" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B129" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B130" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B131" t="s">
-        <v>25</v>
+        <v>3</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B132" t="s">
         <v>5</v>
@@ -2915,23 +2956,23 @@
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B133" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B134" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B135" t="s">
         <v>25</v>
@@ -2939,15 +2980,15 @@
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B136" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B137" t="s">
         <v>25</v>
@@ -2955,7 +2996,7 @@
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B138" t="s">
         <v>7</v>
@@ -2963,7 +3004,7 @@
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B139" t="s">
         <v>13</v>
@@ -2971,47 +3012,47 @@
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B140" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B141" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B142" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B143" t="s">
-        <v>19</v>
+        <v>104</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B144" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B145" t="s">
         <v>25</v>
@@ -3019,15 +3060,15 @@
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B146" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B147" t="s">
         <v>7</v>
@@ -3035,31 +3076,31 @@
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B148" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B149" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B150" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B151" t="s">
         <v>13</v>
@@ -3067,7 +3108,7 @@
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B152" t="s">
         <v>9</v>
@@ -3075,15 +3116,15 @@
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B153" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B154" t="s">
         <v>9</v>
@@ -3091,47 +3132,47 @@
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B155" t="s">
-        <v>9</v>
+        <v>100</v>
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B156" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B157" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B158" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B159" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B160" t="s">
         <v>13</v>
@@ -3139,7 +3180,7 @@
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B161" t="s">
         <v>7</v>
@@ -3147,7 +3188,7 @@
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B162" t="s">
         <v>7</v>
@@ -3155,23 +3196,23 @@
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B163" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B164" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B165" t="s">
         <v>13</v>
@@ -3179,15 +3220,15 @@
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B166" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B167" t="s">
         <v>17</v>
@@ -3195,23 +3236,23 @@
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B168" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B169" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B170" t="s">
         <v>27</v>
@@ -3219,7 +3260,7 @@
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B171" t="s">
         <v>5</v>
@@ -3227,7 +3268,7 @@
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B172" t="s">
         <v>35</v>
@@ -3235,15 +3276,15 @@
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B173" t="s">
-        <v>75</v>
+        <v>37</v>
       </c>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B174" t="s">
         <v>31</v>
@@ -3251,7 +3292,7 @@
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="B175" t="s">
         <v>35</v>
@@ -3259,7 +3300,7 @@
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="B176" t="s">
         <v>33</v>
@@ -3267,7 +3308,7 @@
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B177" t="s">
         <v>25</v>
@@ -3275,7 +3316,7 @@
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B178" t="s">
         <v>29</v>
@@ -3283,15 +3324,15 @@
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B179" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B180" t="s">
         <v>31</v>
@@ -3299,7 +3340,7 @@
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B181" t="s">
         <v>29</v>
@@ -3307,7 +3348,7 @@
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B182" t="s">
         <v>27</v>
@@ -3315,7 +3356,7 @@
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B183" t="s">
         <v>3</v>
@@ -3323,7 +3364,7 @@
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B184" t="s">
         <v>25</v>
@@ -3331,7 +3372,7 @@
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B185" t="s">
         <v>3</v>
@@ -3339,7 +3380,7 @@
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="B186" t="s">
         <v>27</v>
@@ -3347,7 +3388,7 @@
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B187" t="s">
         <v>3</v>
@@ -3355,23 +3396,23 @@
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B188" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="B189" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="B190" t="s">
         <v>13</v>
@@ -3379,71 +3420,71 @@
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B191" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="B192" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="B193" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="B194" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B195" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="B196" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B197" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B198" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B199" t="s">
         <v>13</v>
@@ -3451,23 +3492,23 @@
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B200" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B201" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B202" t="s">
         <v>9</v>
@@ -3475,15 +3516,15 @@
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B203" t="s">
-        <v>103</v>
+        <v>7</v>
       </c>
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B204" t="s">
         <v>13</v>
@@ -3491,15 +3532,15 @@
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B205" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="B206" t="s">
         <v>9</v>
@@ -3507,7 +3548,7 @@
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B207" t="s">
         <v>9</v>
@@ -3515,47 +3556,47 @@
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B208" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="209" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="B209" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="210" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B210" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="211" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="B211" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="B212" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="213" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="B213" t="s">
         <v>7</v>
@@ -3563,7 +3604,7 @@
     </row>
     <row r="214" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="B214" t="s">
         <v>13</v>
@@ -3571,7 +3612,7 @@
     </row>
     <row r="215" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="B215" t="s">
         <v>17</v>
@@ -3579,15 +3620,15 @@
     </row>
     <row r="216" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="B216" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="217" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="B217" t="s">
         <v>25</v>
@@ -3595,7 +3636,7 @@
     </row>
     <row r="218" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="B218" t="s">
         <v>27</v>
@@ -3603,7 +3644,7 @@
     </row>
     <row r="219" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="B219" t="s">
         <v>35</v>
@@ -3611,98 +3652,98 @@
     </row>
     <row r="220" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="B220" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="221" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="B221" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="222" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="B222" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="223" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="B223" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
     </row>
     <row r="224" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="B224" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="225" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="B225" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="226" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="B226" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="227" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="B227" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
     </row>
     <row r="228" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="B228" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="229" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="B229" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="230" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="B230" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="231" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="B231" t="s">
-        <v>263</v>
+        <v>56</v>
       </c>
     </row>
     <row r="232" spans="1:2" x14ac:dyDescent="0.25">
@@ -3710,7 +3751,7 @@
         <v>264</v>
       </c>
       <c r="B232" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="233" spans="1:2" x14ac:dyDescent="0.25">
@@ -3718,7 +3759,7 @@
         <v>265</v>
       </c>
       <c r="B233" t="s">
-        <v>263</v>
+        <v>56</v>
       </c>
     </row>
     <row r="234" spans="1:2" x14ac:dyDescent="0.25">
@@ -3726,7 +3767,7 @@
         <v>266</v>
       </c>
       <c r="B234" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="235" spans="1:2" x14ac:dyDescent="0.25">
@@ -3734,7 +3775,7 @@
         <v>267</v>
       </c>
       <c r="B235" t="s">
-        <v>263</v>
+        <v>56</v>
       </c>
     </row>
     <row r="236" spans="1:2" x14ac:dyDescent="0.25">
@@ -3742,7 +3783,7 @@
         <v>268</v>
       </c>
       <c r="B236" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="237" spans="1:2" x14ac:dyDescent="0.25">
@@ -3750,7 +3791,7 @@
         <v>269</v>
       </c>
       <c r="B237" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="238" spans="1:2" x14ac:dyDescent="0.25">
@@ -3758,7 +3799,7 @@
         <v>270</v>
       </c>
       <c r="B238" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="239" spans="1:2" x14ac:dyDescent="0.25">
@@ -3766,7 +3807,7 @@
         <v>271</v>
       </c>
       <c r="B239" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
     </row>
     <row r="240" spans="1:2" x14ac:dyDescent="0.25">
@@ -3774,7 +3815,7 @@
         <v>272</v>
       </c>
       <c r="B240" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="241" spans="1:2" x14ac:dyDescent="0.25">
@@ -3782,7 +3823,7 @@
         <v>273</v>
       </c>
       <c r="B241" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="242" spans="1:2" x14ac:dyDescent="0.25">
@@ -3790,7 +3831,7 @@
         <v>274</v>
       </c>
       <c r="B242" t="s">
-        <v>263</v>
+        <v>56</v>
       </c>
     </row>
     <row r="243" spans="1:2" x14ac:dyDescent="0.25">
@@ -3798,7 +3839,7 @@
         <v>275</v>
       </c>
       <c r="B243" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
     </row>
     <row r="244" spans="1:2" x14ac:dyDescent="0.25">
@@ -3806,7 +3847,7 @@
         <v>276</v>
       </c>
       <c r="B244" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="245" spans="1:2" x14ac:dyDescent="0.25">
@@ -3814,7 +3855,7 @@
         <v>277</v>
       </c>
       <c r="B245" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="246" spans="1:2" x14ac:dyDescent="0.25">
@@ -3822,7 +3863,7 @@
         <v>278</v>
       </c>
       <c r="B246" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="247" spans="1:2" x14ac:dyDescent="0.25">
@@ -3830,7 +3871,7 @@
         <v>279</v>
       </c>
       <c r="B247" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="248" spans="1:2" x14ac:dyDescent="0.25">
@@ -3838,7 +3879,7 @@
         <v>280</v>
       </c>
       <c r="B248" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="249" spans="1:2" x14ac:dyDescent="0.25">
@@ -3846,7 +3887,7 @@
         <v>281</v>
       </c>
       <c r="B249" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="250" spans="1:2" x14ac:dyDescent="0.25">
@@ -3854,7 +3895,7 @@
         <v>282</v>
       </c>
       <c r="B250" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="251" spans="1:2" x14ac:dyDescent="0.25">
@@ -3862,7 +3903,7 @@
         <v>283</v>
       </c>
       <c r="B251" t="s">
-        <v>75</v>
+        <v>33</v>
       </c>
     </row>
     <row r="252" spans="1:2" x14ac:dyDescent="0.25">
@@ -3870,7 +3911,7 @@
         <v>284</v>
       </c>
       <c r="B252" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="253" spans="1:2" x14ac:dyDescent="0.25">
@@ -3902,7 +3943,7 @@
         <v>288</v>
       </c>
       <c r="B256" t="s">
-        <v>75</v>
+        <v>37</v>
       </c>
     </row>
     <row r="257" spans="1:2" x14ac:dyDescent="0.25">
@@ -3910,7 +3951,7 @@
         <v>289</v>
       </c>
       <c r="B257" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="258" spans="1:2" x14ac:dyDescent="0.25">
@@ -3934,7 +3975,7 @@
         <v>292</v>
       </c>
       <c r="B260" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="261" spans="1:2" x14ac:dyDescent="0.25">
@@ -3958,7 +3999,7 @@
         <v>295</v>
       </c>
       <c r="B263" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="264" spans="1:2" x14ac:dyDescent="0.25">
@@ -3966,7 +4007,7 @@
         <v>296</v>
       </c>
       <c r="B264" t="s">
-        <v>75</v>
+        <v>37</v>
       </c>
     </row>
     <row r="265" spans="1:2" x14ac:dyDescent="0.25">
@@ -3974,7 +4015,7 @@
         <v>297</v>
       </c>
       <c r="B265" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="266" spans="1:2" x14ac:dyDescent="0.25">
@@ -3998,7 +4039,7 @@
         <v>300</v>
       </c>
       <c r="B268" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="269" spans="1:2" x14ac:dyDescent="0.25">
@@ -4006,7 +4047,7 @@
         <v>301</v>
       </c>
       <c r="B269" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="270" spans="1:2" x14ac:dyDescent="0.25">
@@ -4014,7 +4055,7 @@
         <v>302</v>
       </c>
       <c r="B270" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="271" spans="1:2" x14ac:dyDescent="0.25">
@@ -4022,7 +4063,7 @@
         <v>303</v>
       </c>
       <c r="B271" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
     </row>
     <row r="272" spans="1:2" x14ac:dyDescent="0.25">
@@ -4038,7 +4079,7 @@
         <v>306</v>
       </c>
       <c r="B273" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="274" spans="1:2" x14ac:dyDescent="0.25">
@@ -4046,7 +4087,7 @@
         <v>307</v>
       </c>
       <c r="B274" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="275" spans="1:2" x14ac:dyDescent="0.25">
@@ -4054,7 +4095,7 @@
         <v>308</v>
       </c>
       <c r="B275" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="276" spans="1:2" x14ac:dyDescent="0.25">
@@ -4062,7 +4103,7 @@
         <v>309</v>
       </c>
       <c r="B276" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="277" spans="1:2" x14ac:dyDescent="0.25">
@@ -4070,7 +4111,7 @@
         <v>310</v>
       </c>
       <c r="B277" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="278" spans="1:2" x14ac:dyDescent="0.25">
@@ -4166,23 +4207,23 @@
         <v>331</v>
       </c>
       <c r="B289" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
     </row>
     <row r="290" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
+        <v>332</v>
+      </c>
+      <c r="B290" t="s">
         <v>333</v>
-      </c>
-      <c r="B290" t="s">
-        <v>334</v>
       </c>
     </row>
     <row r="291" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
+        <v>334</v>
+      </c>
+      <c r="B291" t="s">
         <v>335</v>
-      </c>
-      <c r="B291" t="s">
-        <v>328</v>
       </c>
     </row>
     <row r="292" spans="1:2" x14ac:dyDescent="0.25">
@@ -4254,7 +4295,7 @@
         <v>349</v>
       </c>
       <c r="B300" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="301" spans="1:2" x14ac:dyDescent="0.25">
@@ -4262,7 +4303,7 @@
         <v>350</v>
       </c>
       <c r="B301" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
     </row>
     <row r="302" spans="1:2" x14ac:dyDescent="0.25">
@@ -4270,7 +4311,7 @@
         <v>351</v>
       </c>
       <c r="B302" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="303" spans="1:2" x14ac:dyDescent="0.25">
@@ -4310,7 +4351,7 @@
         <v>356</v>
       </c>
       <c r="B307" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="308" spans="1:2" x14ac:dyDescent="0.25">
@@ -4318,7 +4359,7 @@
         <v>357</v>
       </c>
       <c r="B308" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="309" spans="1:2" x14ac:dyDescent="0.25">
@@ -4326,7 +4367,7 @@
         <v>358</v>
       </c>
       <c r="B309" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="310" spans="1:2" x14ac:dyDescent="0.25">
@@ -4334,7 +4375,7 @@
         <v>359</v>
       </c>
       <c r="B310" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="311" spans="1:2" x14ac:dyDescent="0.25">
@@ -4342,7 +4383,7 @@
         <v>360</v>
       </c>
       <c r="B311" t="s">
-        <v>186</v>
+        <v>102</v>
       </c>
     </row>
     <row r="312" spans="1:2" x14ac:dyDescent="0.25">
@@ -4350,7 +4391,7 @@
         <v>361</v>
       </c>
       <c r="B312" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="313" spans="1:2" x14ac:dyDescent="0.25">
@@ -4382,7 +4423,7 @@
         <v>365</v>
       </c>
       <c r="B316" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="317" spans="1:2" x14ac:dyDescent="0.25">
@@ -4390,7 +4431,7 @@
         <v>366</v>
       </c>
       <c r="B317" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="318" spans="1:2" x14ac:dyDescent="0.25">
@@ -4398,7 +4439,7 @@
         <v>367</v>
       </c>
       <c r="B318" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="319" spans="1:2" x14ac:dyDescent="0.25">
@@ -4406,7 +4447,7 @@
         <v>368</v>
       </c>
       <c r="B319" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="320" spans="1:2" x14ac:dyDescent="0.25">
@@ -4414,7 +4455,7 @@
         <v>369</v>
       </c>
       <c r="B320" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="321" spans="1:2" x14ac:dyDescent="0.25">
@@ -4430,7 +4471,7 @@
         <v>371</v>
       </c>
       <c r="B322" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="323" spans="1:2" x14ac:dyDescent="0.25">
@@ -4438,7 +4479,7 @@
         <v>372</v>
       </c>
       <c r="B323" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
     </row>
     <row r="324" spans="1:2" x14ac:dyDescent="0.25">
@@ -4446,7 +4487,7 @@
         <v>373</v>
       </c>
       <c r="B324" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="325" spans="1:2" x14ac:dyDescent="0.25">
@@ -4462,7 +4503,7 @@
         <v>375</v>
       </c>
       <c r="B326" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="327" spans="1:2" x14ac:dyDescent="0.25">
@@ -4470,7 +4511,7 @@
         <v>376</v>
       </c>
       <c r="B327" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="328" spans="1:2" x14ac:dyDescent="0.25">
@@ -4478,7 +4519,7 @@
         <v>377</v>
       </c>
       <c r="B328" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="329" spans="1:2" x14ac:dyDescent="0.25">
@@ -4494,7 +4535,7 @@
         <v>379</v>
       </c>
       <c r="B330" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="331" spans="1:2" x14ac:dyDescent="0.25">
@@ -4502,7 +4543,7 @@
         <v>380</v>
       </c>
       <c r="B331" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="332" spans="1:2" x14ac:dyDescent="0.25">
@@ -4518,7 +4559,7 @@
         <v>382</v>
       </c>
       <c r="B333" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="334" spans="1:2" x14ac:dyDescent="0.25">
@@ -4526,7 +4567,7 @@
         <v>383</v>
       </c>
       <c r="B334" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="335" spans="1:2" x14ac:dyDescent="0.25">
@@ -4534,7 +4575,7 @@
         <v>384</v>
       </c>
       <c r="B335" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
     </row>
     <row r="336" spans="1:2" x14ac:dyDescent="0.25">
@@ -4558,7 +4599,7 @@
         <v>387</v>
       </c>
       <c r="B338" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="339" spans="1:2" x14ac:dyDescent="0.25">
@@ -4614,7 +4655,7 @@
         <v>394</v>
       </c>
       <c r="B345" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="346" spans="1:2" x14ac:dyDescent="0.25">
@@ -4638,7 +4679,7 @@
         <v>397</v>
       </c>
       <c r="B348" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="349" spans="1:2" x14ac:dyDescent="0.25">
@@ -4646,7 +4687,7 @@
         <v>398</v>
       </c>
       <c r="B349" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="350" spans="1:2" x14ac:dyDescent="0.25">
@@ -4654,7 +4695,7 @@
         <v>399</v>
       </c>
       <c r="B350" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="351" spans="1:2" x14ac:dyDescent="0.25">
@@ -4678,7 +4719,7 @@
         <v>402</v>
       </c>
       <c r="B353" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="354" spans="1:2" x14ac:dyDescent="0.25">
@@ -4710,7 +4751,7 @@
         <v>406</v>
       </c>
       <c r="B357" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="358" spans="1:2" x14ac:dyDescent="0.25">
@@ -4718,7 +4759,7 @@
         <v>407</v>
       </c>
       <c r="B358" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="359" spans="1:2" x14ac:dyDescent="0.25">
@@ -4726,7 +4767,7 @@
         <v>408</v>
       </c>
       <c r="B359" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="360" spans="1:2" x14ac:dyDescent="0.25">
@@ -4742,7 +4783,7 @@
         <v>410</v>
       </c>
       <c r="B361" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="362" spans="1:2" x14ac:dyDescent="0.25">
@@ -4750,7 +4791,7 @@
         <v>411</v>
       </c>
       <c r="B362" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="363" spans="1:2" x14ac:dyDescent="0.25">
@@ -4758,7 +4799,7 @@
         <v>412</v>
       </c>
       <c r="B363" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
     </row>
     <row r="364" spans="1:2" x14ac:dyDescent="0.25">
@@ -4766,7 +4807,7 @@
         <v>413</v>
       </c>
       <c r="B364" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
     </row>
     <row r="365" spans="1:2" x14ac:dyDescent="0.25">
@@ -4774,7 +4815,7 @@
         <v>414</v>
       </c>
       <c r="B365" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="366" spans="1:2" x14ac:dyDescent="0.25">
@@ -4782,7 +4823,7 @@
         <v>415</v>
       </c>
       <c r="B366" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="367" spans="1:2" x14ac:dyDescent="0.25">
@@ -4798,7 +4839,7 @@
         <v>417</v>
       </c>
       <c r="B368" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
     </row>
     <row r="369" spans="1:2" x14ac:dyDescent="0.25">
@@ -4814,7 +4855,7 @@
         <v>419</v>
       </c>
       <c r="B370" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
     </row>
     <row r="371" spans="1:2" x14ac:dyDescent="0.25">
@@ -4822,7 +4863,7 @@
         <v>420</v>
       </c>
       <c r="B371" t="s">
-        <v>9</v>
+        <v>100</v>
       </c>
     </row>
     <row r="372" spans="1:2" x14ac:dyDescent="0.25">
@@ -4830,7 +4871,7 @@
         <v>421</v>
       </c>
       <c r="B372" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="373" spans="1:2" x14ac:dyDescent="0.25">
@@ -4838,7 +4879,7 @@
         <v>422</v>
       </c>
       <c r="B373" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="374" spans="1:2" x14ac:dyDescent="0.25">
@@ -4846,7 +4887,7 @@
         <v>423</v>
       </c>
       <c r="B374" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="375" spans="1:2" x14ac:dyDescent="0.25">
@@ -4854,7 +4895,7 @@
         <v>424</v>
       </c>
       <c r="B375" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="376" spans="1:2" x14ac:dyDescent="0.25">
@@ -4862,7 +4903,7 @@
         <v>425</v>
       </c>
       <c r="B376" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="377" spans="1:2" x14ac:dyDescent="0.25">
@@ -4870,7 +4911,7 @@
         <v>426</v>
       </c>
       <c r="B377" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="378" spans="1:2" x14ac:dyDescent="0.25">
@@ -4878,7 +4919,7 @@
         <v>427</v>
       </c>
       <c r="B378" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="379" spans="1:2" x14ac:dyDescent="0.25">
@@ -4886,7 +4927,7 @@
         <v>428</v>
       </c>
       <c r="B379" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="380" spans="1:2" x14ac:dyDescent="0.25">
@@ -4910,7 +4951,7 @@
         <v>431</v>
       </c>
       <c r="B382" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="383" spans="1:2" x14ac:dyDescent="0.25">
@@ -4918,7 +4959,7 @@
         <v>432</v>
       </c>
       <c r="B383" t="s">
-        <v>3</v>
+        <v>20</v>
       </c>
     </row>
     <row r="384" spans="1:2" x14ac:dyDescent="0.25">
@@ -4974,7 +5015,7 @@
         <v>439</v>
       </c>
       <c r="B390" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="391" spans="1:2" x14ac:dyDescent="0.25">
@@ -5014,7 +5055,7 @@
         <v>444</v>
       </c>
       <c r="B395" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="396" spans="1:2" x14ac:dyDescent="0.25">
@@ -5030,7 +5071,7 @@
         <v>446</v>
       </c>
       <c r="B397" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="398" spans="1:2" x14ac:dyDescent="0.25">
@@ -5078,7 +5119,7 @@
         <v>452</v>
       </c>
       <c r="B403" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="404" spans="1:2" x14ac:dyDescent="0.25">
@@ -5102,7 +5143,7 @@
         <v>455</v>
       </c>
       <c r="B406" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="407" spans="1:2" x14ac:dyDescent="0.25">
@@ -5110,7 +5151,7 @@
         <v>456</v>
       </c>
       <c r="B407" t="s">
-        <v>5</v>
+        <v>25</v>
       </c>
     </row>
     <row r="408" spans="1:2" x14ac:dyDescent="0.25">
@@ -5150,7 +5191,7 @@
         <v>461</v>
       </c>
       <c r="B412" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="413" spans="1:2" x14ac:dyDescent="0.25">
@@ -5158,7 +5199,7 @@
         <v>462</v>
       </c>
       <c r="B413" t="s">
-        <v>328</v>
+        <v>335</v>
       </c>
     </row>
     <row r="414" spans="1:2" x14ac:dyDescent="0.25">
@@ -5166,7 +5207,7 @@
         <v>463</v>
       </c>
       <c r="B414" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="415" spans="1:2" x14ac:dyDescent="0.25">
@@ -5182,7 +5223,7 @@
         <v>466</v>
       </c>
       <c r="B416" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
     </row>
     <row r="417" spans="1:2" x14ac:dyDescent="0.25">
@@ -5190,7 +5231,7 @@
         <v>467</v>
       </c>
       <c r="B417" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="418" spans="1:2" x14ac:dyDescent="0.25">
@@ -5206,7 +5247,7 @@
         <v>469</v>
       </c>
       <c r="B419" t="s">
-        <v>75</v>
+        <v>33</v>
       </c>
     </row>
     <row r="420" spans="1:2" x14ac:dyDescent="0.25">
@@ -5214,7 +5255,7 @@
         <v>470</v>
       </c>
       <c r="B420" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="421" spans="1:2" x14ac:dyDescent="0.25">
@@ -5230,7 +5271,7 @@
         <v>472</v>
       </c>
       <c r="B422" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="423" spans="1:2" x14ac:dyDescent="0.25">
@@ -5238,7 +5279,7 @@
         <v>473</v>
       </c>
       <c r="B423" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="424" spans="1:2" x14ac:dyDescent="0.25">
@@ -5246,7 +5287,7 @@
         <v>474</v>
       </c>
       <c r="B424" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
     </row>
     <row r="425" spans="1:2" x14ac:dyDescent="0.25">
@@ -5297,9 +5338,18 @@
         <v>486</v>
       </c>
     </row>
+    <row r="431" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A431" t="s">
+        <v>487</v>
+      </c>
+      <c r="B431" t="s">
+        <v>488</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:B1"/>
+  <autoFilter ref="A1:B1" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>